--- a/List.xlsx
+++ b/List.xlsx
@@ -918,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1151,13 +1151,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
-        <v>10891</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>10184</v>
       </c>
       <c r="E9" s="24">
         <v>3</v>
@@ -1168,17 +1162,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
-        <v>10970</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>10891</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E10" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1186,10 +1179,17 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
-        <v>11011</v>
+        <v>10970</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1197,68 +1197,76 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
-        <v>11520</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>11011</v>
       </c>
       <c r="E12" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
+        <v>11520</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>11714</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E14" s="28" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>11764</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="24">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
+        <v>11764</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>11957</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E16" s="24">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E15">
+  <sortState ref="A2:E16">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="4">

--- a/List.xlsx
+++ b/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>UVA No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,98 @@
   </si>
   <si>
     <t>還需三星以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin. Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.04.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.04.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.05.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.04.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.05.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +268,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0&quot;題&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +280,15 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -486,12 +587,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -502,14 +599,16 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,12 +676,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -593,8 +686,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,7 +1060,8 @@
     <col min="1" max="1" width="16.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="0.140625" style="6" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="5" max="5" width="9.140625" style="29"/>
+    <col min="6" max="6" width="13" style="32" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -942,24 +1074,27 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="R1" s="34" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="O1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
@@ -972,33 +1107,36 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="29">
         <v>3</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="F2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
@@ -1011,40 +1149,43 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="K3" s="15">
+      <c r="F3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="15">
         <f>COUNTIFS(E:E,"=1",D:D,"=Y")</f>
         <v>4</v>
       </c>
-      <c r="L3" s="16">
+      <c r="I3" s="16">
         <f>COUNTIFS(E:E,"=2",D:D,"=Y")</f>
         <v>4</v>
       </c>
-      <c r="M3" s="16">
+      <c r="J3" s="16">
         <f>COUNTIFS(E:E,"=3",D:D,"=Y")</f>
-        <v>2</v>
-      </c>
-      <c r="N3" s="16">
+        <v>7</v>
+      </c>
+      <c r="K3" s="16">
         <f>COUNTIFS(E:E,"=4",D:D,"=Y")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="17">
+      <c r="L3" s="17">
         <f>COUNTIFS(E:E,"=5",D:D,"=Y")</f>
         <v>0</v>
       </c>
-      <c r="P3" s="11">
-        <f>K3*1+L3*2+M3*4+N3*7+O3*10</f>
-        <v>20</v>
-      </c>
-      <c r="Q3" s="18">
-        <f>SUM(K3:O3)</f>
-        <v>10</v>
-      </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39"/>
+      <c r="M3" s="11">
+        <f>H3*1+I3*2+J3*4+K3*7+L3*10</f>
+        <v>40</v>
+      </c>
+      <c r="N3" s="18">
+        <f>SUM(H3:L3)</f>
+        <v>15</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -1057,20 +1198,23 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="29">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="F4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="39"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
@@ -1078,99 +1222,108 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>5</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="H5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="29">
-        <f>(L3/1.5)-SUM(M3:O3)</f>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="10" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="39">
+        <f>(I3/1.5)-SUM(J3:L3)</f>
+        <v>-4.3333333333333339</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="4" t="str">
-        <f>IF((K3 &lt;= 10) * (SUM(L3:O3) &gt;= 11) * (SUM(M3:O3) &gt;= 5) * (L3 &lt;= (M3+N3+O3)*1.5 ) * (SUM(K3:O3)&gt;=20),"Yes","No")</f>
+      <c r="N5" s="4" t="str">
+        <f>IF((H3 &lt;= 10) * (SUM(I3:L3) &gt;= 11) * (SUM(J3:L3) &gt;= 5) * (I3 &lt;= (J3+K3+L3)*1.5 ) * (SUM(H3:L3)&gt;=20),"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="39"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
-        <v>10107</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>10105</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2</v>
-      </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="29">
+        <v>3</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
-        <v>10125</v>
-      </c>
-      <c r="E7" s="24">
+        <v>10107</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="29">
         <v>2</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
+      <c r="F7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
+        <v>10125</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>10182</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E9" s="36">
         <v>2</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="39"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>10184</v>
-      </c>
-      <c r="E9" s="24">
-        <v>3</v>
-      </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
+      <c r="F9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
-        <v>10891</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="24">
+        <v>10184</v>
+      </c>
+      <c r="E10" s="29">
         <v>3</v>
       </c>
       <c r="R10" s="2"/>
@@ -1179,101 +1332,203 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
-        <v>10970</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>10401</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="24">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>11011</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="A12" s="33">
+        <v>10891</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="36">
         <v>3</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>11520</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="24">
-        <v>2</v>
+      <c r="A13" s="33">
+        <v>10970</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>11714</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>22</v>
+      <c r="A14" s="22">
+        <v>11011</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
-        <v>11764</v>
+        <v>11015</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
+        <v>11026</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="29">
+        <v>3</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>11512</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="36">
+        <v>3</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>11520</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>11714</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>11764</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>11957</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="3" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E21" s="29">
         <v>2</v>
       </c>
+      <c r="F21" s="32" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E16">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:F21">
+    <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="R1:T9"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
